--- a/Data/Processing/2024-02-02/ATUL.xlsx
+++ b/Data/Processing/2024-02-02/ATUL.xlsx
@@ -613,7 +613,7 @@
         <v>44960</v>
       </c>
       <c r="B2">
-        <v>7135.24</v>
+        <v>7135.25</v>
       </c>
       <c r="C2">
         <v>7214.69</v>
@@ -643,7 +643,7 @@
         <v>-0.47</v>
       </c>
       <c r="L2">
-        <v>22.67</v>
+        <v>22.68</v>
       </c>
       <c r="M2">
         <v>-0.29</v>
@@ -1463,7 +1463,7 @@
         <v>44985</v>
       </c>
       <c r="B19">
-        <v>6986.49</v>
+        <v>6986.48</v>
       </c>
       <c r="C19">
         <v>7069.7</v>
@@ -1493,7 +1493,7 @@
         <v>-0.86</v>
       </c>
       <c r="L19">
-        <v>9.33</v>
+        <v>9.32</v>
       </c>
       <c r="M19">
         <v>0.76</v>
@@ -2713,7 +2713,7 @@
         <v>45026</v>
       </c>
       <c r="B44">
-        <v>6978.64</v>
+        <v>6978.65</v>
       </c>
       <c r="C44">
         <v>7003.75</v>
@@ -2743,7 +2743,7 @@
         <v>-1</v>
       </c>
       <c r="L44">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0.64</v>
@@ -3616,7 +3616,7 @@
         <v>6670.81</v>
       </c>
       <c r="C62">
-        <v>6737.34</v>
+        <v>6737.35</v>
       </c>
       <c r="D62">
         <v>6640.09</v>
@@ -4616,7 +4616,7 @@
         <v>6707.57</v>
       </c>
       <c r="C82">
-        <v>6780.46</v>
+        <v>6780.47</v>
       </c>
       <c r="D82">
         <v>6703.06</v>
@@ -5816,7 +5816,7 @@
         <v>6678.5</v>
       </c>
       <c r="C106">
-        <v>6678.75</v>
+        <v>6678.74</v>
       </c>
       <c r="D106">
         <v>6456.5</v>
